--- a/02_output/02_pca/soil_pca_table_loadings_short.xlsx
+++ b/02_output/02_pca/soil_pca_table_loadings_short.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/02_output/02_pca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_B1F631220A39AEED9A2632BF073E1B93925924A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16747FD0-ABF6-4F78-B97C-A7C2CAC16142}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_B1F631220A39AEED9A2632BF073E1B93925924A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6074B153-3291-4F9C-ABF8-38429B532220}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>silt (0.321)</t>
   </si>
   <si>
-    <t>sand (-0.313)</t>
-  </si>
-  <si>
     <t>pH (-0.302)</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Within 10% max loading, corr. &gt; 0.6</t>
+  </si>
+  <si>
+    <t>&gt;</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -583,7 +583,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -599,13 +599,13 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -615,7 +615,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -624,131 +624,131 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
